--- a/Oracle - CCC AWS Inventory.xlsx
+++ b/Oracle - CCC AWS Inventory.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mludusan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2A9F55-7E88-4D5F-B7FB-7B3AA6831AFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F8C53-B0AE-4518-9075-FD4D2834C00A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="7932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="2" r:id="rId1"/>
     <sheet name="e-Biz Apps Tiers" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>Env</t>
   </si>
@@ -320,9 +320,6 @@
     <t>jdbc:oracle:thin:@pprd1oradg1.aws-p-prd.copyright.com:1530:oap1</t>
   </si>
   <si>
-    <t>Last Update: 12/10/2019, By Evan Lai</t>
-  </si>
-  <si>
     <t>CCC Oracle AWS Inventory - Databases</t>
   </si>
   <si>
@@ -378,6 +375,33 @@
   </si>
   <si>
     <t>ppre1oappin1.aws-p-pre.copyright.com</t>
+  </si>
+  <si>
+    <t>Port Range</t>
+  </si>
+  <si>
+    <t>1500 - 15000</t>
+  </si>
+  <si>
+    <t>Target Date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>AWS to AWS</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>Port Pool</t>
+  </si>
+  <si>
+    <t>Last Update: 01/18/2019, By Evan Lai</t>
   </si>
 </sst>
 </file>
@@ -387,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +450,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -441,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,23 +503,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,7 +546,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,6 +601,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,564 +919,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="65.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="58.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1541</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1525</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1541</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1529</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1543</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1527</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1543</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1541</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1525</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1543</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1543</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="18">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1527</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="18">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1541</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1530</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="20">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1531</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="20">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="14">
         <v>1541</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="G20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="20">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1525</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1530</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="20">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="14">
         <v>1541</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1545</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="20">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="14">
         <v>1529</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="G24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="20">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1543</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1527</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1543</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1521</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="14">
         <v>1541</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="G26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="20">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1525</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1543</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1543</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1527</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1541</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="14">
         <v>1530</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1531</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1541</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1530</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1541</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1545</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1529</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1521</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1541</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1530</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="12" t="s">
         <v>94</v>
+      </c>
+      <c r="H27" s="20">
+        <v>43528</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1565,7 @@
     <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1415,7 +1574,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,162 +1583,251 @@
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="str">
+        <f>Databases!$A$2</f>
+        <v>Last Update: 01/18/2019, By Evan Lai</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="F4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="E9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>100</v>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>